--- a/data/trans_orig/P6708-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E75F37A-2A7C-4AAA-A43F-7C6A3E56D096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B660A0AB-8929-4AEE-9EA2-71D4DFD1F8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E1806D5-79F5-4117-810D-D089E73AE48F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DFEE5E45-E0A0-482C-A03D-684B6FF7284D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="763">
   <si>
     <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,43%</t>
+    <t>16,56%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,2191 +106,2215 @@
     <t>4,68%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
     <t>20,27%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
   </si>
   <si>
     <t>16,25%</t>
@@ -2714,7 +2738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1660A9FD-7C57-4474-9CD5-980095BE6E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2D66CC-54F6-4FEA-8468-B82E27CB0438}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3203,7 +3227,7 @@
         <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -3212,13 +3236,13 @@
         <v>9829</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -3227,13 +3251,13 @@
         <v>22985</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3272,13 @@
         <v>39919</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -3263,13 +3287,13 @@
         <v>26759</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -3278,13 +3302,13 @@
         <v>66678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3323,13 @@
         <v>58507</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3314,13 +3338,13 @@
         <v>36508</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -3329,13 +3353,13 @@
         <v>95015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3374,13 @@
         <v>88239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -3365,13 +3389,13 @@
         <v>53436</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -3380,13 +3404,13 @@
         <v>141675</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,7 +3466,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3454,13 +3478,13 @@
         <v>29646</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -3469,13 +3493,13 @@
         <v>23172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -3484,13 +3508,13 @@
         <v>52818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3529,13 @@
         <v>26872</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -3520,13 +3544,13 @@
         <v>22931</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3535,13 +3559,13 @@
         <v>49803</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3580,13 @@
         <v>84754</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -3571,13 +3595,13 @@
         <v>56856</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -3586,13 +3610,13 @@
         <v>141610</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3631,13 @@
         <v>94039</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -3622,13 +3646,13 @@
         <v>56375</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -3637,13 +3661,13 @@
         <v>150414</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3682,13 @@
         <v>173397</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -3673,13 +3697,13 @@
         <v>110006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>259</v>
@@ -3688,13 +3712,13 @@
         <v>283402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,7 +3774,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3762,13 +3786,13 @@
         <v>22687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -3777,13 +3801,13 @@
         <v>24692</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -3792,10 +3816,10 @@
         <v>47379</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>158</v>
@@ -3831,10 +3855,10 @@
         <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -3843,13 +3867,13 @@
         <v>45030</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3888,13 @@
         <v>53058</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -3879,13 +3903,13 @@
         <v>36813</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -3894,13 +3918,13 @@
         <v>89871</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3939,13 @@
         <v>68873</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -3930,13 +3954,13 @@
         <v>52605</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>111</v>
@@ -3945,13 +3969,13 @@
         <v>121478</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3990,13 @@
         <v>144356</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -3981,13 +4005,13 @@
         <v>85690</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>203</v>
@@ -3996,13 +4020,13 @@
         <v>230045</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,7 +4082,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4070,13 +4094,13 @@
         <v>34756</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>28</v>
@@ -4085,13 +4109,13 @@
         <v>29306</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -4100,13 +4124,13 @@
         <v>64062</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4145,13 @@
         <v>33519</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -4136,13 +4160,13 @@
         <v>28782</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>59</v>
@@ -4151,13 +4175,13 @@
         <v>62301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4196,13 @@
         <v>97434</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>71</v>
@@ -4187,13 +4211,13 @@
         <v>76714</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -4202,13 +4226,13 @@
         <v>174147</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4247,13 @@
         <v>116786</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>76</v>
@@ -4238,13 +4262,13 @@
         <v>77812</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>193</v>
@@ -4253,13 +4277,13 @@
         <v>194598</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4298,13 @@
         <v>136193</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>84</v>
@@ -4289,13 +4313,13 @@
         <v>87947</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>212</v>
@@ -4304,13 +4328,13 @@
         <v>224141</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4402,13 @@
         <v>106200</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>85</v>
@@ -4393,13 +4417,13 @@
         <v>89869</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>180</v>
@@ -4408,13 +4432,13 @@
         <v>196070</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4453,13 @@
         <v>106454</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>72</v>
@@ -4444,13 +4468,13 @@
         <v>77061</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>168</v>
@@ -4459,13 +4483,13 @@
         <v>183515</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4504,13 @@
         <v>287894</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>184</v>
@@ -4495,13 +4519,13 @@
         <v>202460</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>464</v>
@@ -4510,13 +4534,13 @@
         <v>490354</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4555,13 @@
         <v>347615</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>212</v>
@@ -4546,13 +4570,13 @@
         <v>225815</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>542</v>
@@ -4561,13 +4585,13 @@
         <v>573430</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4606,13 @@
         <v>566698</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>320</v>
@@ -4597,13 +4621,13 @@
         <v>350312</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M38" s="7">
         <v>847</v>
@@ -4612,13 +4636,13 @@
         <v>917010</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,7 +4698,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4695,7 +4719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AAA56D-B2F1-46C4-B5B1-8FBE2DD4461D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DAC58C-B5C2-4D5A-94EE-77BC0AF7A2FD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4712,7 +4736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4819,13 +4843,13 @@
         <v>4093</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4834,13 +4858,13 @@
         <v>5141</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4849,13 +4873,13 @@
         <v>9234</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4894,13 @@
         <v>5059</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4885,13 +4909,13 @@
         <v>2463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4900,13 +4924,13 @@
         <v>7522</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4945,13 @@
         <v>9777</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4936,13 +4960,13 @@
         <v>6386</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4951,13 +4975,13 @@
         <v>16162</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,7 +4996,7 @@
         <v>10538</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>309</v>
@@ -5029,7 +5053,7 @@
         <v>318</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -5038,13 +5062,13 @@
         <v>5894</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -5053,13 +5077,13 @@
         <v>20449</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5151,13 @@
         <v>23802</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5142,13 +5166,13 @@
         <v>25021</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5157,13 +5181,13 @@
         <v>48824</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,10 +5202,10 @@
         <v>29841</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>335</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>336</v>
@@ -5196,10 +5220,10 @@
         <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -5208,13 +5232,13 @@
         <v>48238</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5253,13 @@
         <v>45857</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -5244,13 +5268,13 @@
         <v>23095</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -5259,13 +5283,13 @@
         <v>68952</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5304,13 @@
         <v>44077</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -5295,13 +5319,13 @@
         <v>44479</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -5310,13 +5334,13 @@
         <v>88556</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5355,13 @@
         <v>55692</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5346,13 +5370,13 @@
         <v>26485</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>266</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -5361,13 +5385,13 @@
         <v>82178</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,7 +5447,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5438,10 +5462,10 @@
         <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -5450,13 +5474,13 @@
         <v>31643</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -5465,13 +5489,13 @@
         <v>59715</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,7 +5516,7 @@
         <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5501,13 +5525,13 @@
         <v>43936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -5516,13 +5540,13 @@
         <v>107753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5561,13 @@
         <v>113744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>380</v>
+        <v>173</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H18" s="7">
         <v>63</v>
@@ -5552,13 +5576,13 @@
         <v>63697</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M18" s="7">
         <v>165</v>
@@ -5567,13 +5591,13 @@
         <v>177441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5612,13 @@
         <v>90359</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -5603,13 +5627,13 @@
         <v>71714</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>154</v>
@@ -5618,13 +5642,13 @@
         <v>162073</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5663,13 @@
         <v>118049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -5654,13 +5678,13 @@
         <v>62782</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>163</v>
@@ -5669,13 +5693,13 @@
         <v>180831</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,7 +5755,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5743,13 +5767,13 @@
         <v>39837</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>204</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5758,13 +5782,13 @@
         <v>18264</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -5773,13 +5797,13 @@
         <v>58102</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5818,13 @@
         <v>50257</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
         <v>46</v>
@@ -5809,13 +5833,13 @@
         <v>46096</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>124</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>92</v>
@@ -5824,13 +5848,13 @@
         <v>96353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5869,13 @@
         <v>121430</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H24" s="7">
         <v>90</v>
@@ -5860,13 +5884,13 @@
         <v>90807</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>422</v>
+        <v>99</v>
       </c>
       <c r="M24" s="7">
         <v>196</v>
@@ -5875,13 +5899,13 @@
         <v>212237</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5920,13 @@
         <v>78013</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -5911,13 +5935,13 @@
         <v>53897</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -5926,13 +5950,13 @@
         <v>131911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,13 +5971,13 @@
         <v>74282</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5962,13 +5986,13 @@
         <v>61494</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>127</v>
@@ -5977,13 +6001,13 @@
         <v>135776</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,7 +6063,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6051,13 +6075,13 @@
         <v>39609</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -6066,13 +6090,13 @@
         <v>39901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>74</v>
@@ -6081,13 +6105,13 @@
         <v>79510</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6126,13 @@
         <v>45522</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -6117,13 +6141,13 @@
         <v>47315</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>90</v>
@@ -6132,13 +6156,13 @@
         <v>92838</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6177,13 @@
         <v>105314</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H30" s="7">
         <v>88</v>
@@ -6168,13 +6192,13 @@
         <v>89935</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="M30" s="7">
         <v>193</v>
@@ -6183,13 +6207,13 @@
         <v>195248</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,13 +6228,13 @@
         <v>98907</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>376</v>
+        <v>478</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H31" s="7">
         <v>58</v>
@@ -6219,13 +6243,13 @@
         <v>61243</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="M31" s="7">
         <v>154</v>
@@ -6234,13 +6258,13 @@
         <v>160150</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6279,13 @@
         <v>111819</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>353</v>
+        <v>488</v>
       </c>
       <c r="H32" s="7">
         <v>80</v>
@@ -6270,13 +6294,13 @@
         <v>87080</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="M32" s="7">
         <v>189</v>
@@ -6285,13 +6309,13 @@
         <v>198899</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>483</v>
+        <v>399</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6383,13 @@
         <v>135414</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>487</v>
+        <v>333</v>
       </c>
       <c r="H34" s="7">
         <v>114</v>
@@ -6374,13 +6398,13 @@
         <v>119970</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>368</v>
+        <v>497</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="M34" s="7">
         <v>238</v>
@@ -6389,13 +6413,13 @@
         <v>255384</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6434,13 @@
         <v>194496</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="H35" s="7">
         <v>156</v>
@@ -6425,13 +6449,13 @@
         <v>158207</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="M35" s="7">
         <v>339</v>
@@ -6440,13 +6464,13 @@
         <v>352702</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,13 +6485,13 @@
         <v>396121</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>502</v>
+        <v>83</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="H36" s="7">
         <v>273</v>
@@ -6476,13 +6500,13 @@
         <v>273919</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>506</v>
+        <v>267</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="M36" s="7">
         <v>639</v>
@@ -6491,13 +6515,13 @@
         <v>670041</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6536,13 @@
         <v>321894</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="H37" s="7">
         <v>239</v>
@@ -6527,13 +6551,13 @@
         <v>241341</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>123</v>
+        <v>520</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="M37" s="7">
         <v>542</v>
@@ -6542,13 +6566,13 @@
         <v>563234</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>30</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6587,13 @@
         <v>374397</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="H38" s="7">
         <v>231</v>
@@ -6578,13 +6602,13 @@
         <v>243736</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="M38" s="7">
         <v>578</v>
@@ -6593,13 +6617,13 @@
         <v>618133</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,7 +6679,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6676,7 +6700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEBA78F-DB8E-494B-939D-24540D2A8075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D703C33E-9D76-4930-B96F-09E9B3F6B207}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6693,7 +6717,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6800,13 +6824,13 @@
         <v>1263</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6815,13 +6839,13 @@
         <v>1425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -6830,13 +6854,13 @@
         <v>2688</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,10 +6878,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6866,13 +6890,13 @@
         <v>2077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6881,13 +6905,13 @@
         <v>2077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,13 +6926,13 @@
         <v>6245</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6917,13 +6941,13 @@
         <v>702</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>370</v>
+        <v>550</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6932,13 +6956,13 @@
         <v>6946</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,13 +6977,13 @@
         <v>2240</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6968,13 +6992,13 @@
         <v>1537</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -6983,13 +7007,13 @@
         <v>3777</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,13 +7028,13 @@
         <v>4166</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -7019,13 +7043,13 @@
         <v>2662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -7034,13 +7058,13 @@
         <v>6828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>559</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,13 +7132,13 @@
         <v>6733</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>283</v>
+        <v>572</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -7123,13 +7147,13 @@
         <v>11559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -7138,13 +7162,13 @@
         <v>18291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,13 +7183,13 @@
         <v>8145</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -7174,13 +7198,13 @@
         <v>6002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -7189,13 +7213,13 @@
         <v>14147</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,13 +7234,13 @@
         <v>19484</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>576</v>
+        <v>272</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>577</v>
+        <v>436</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -7225,13 +7249,13 @@
         <v>19085</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -7240,13 +7264,13 @@
         <v>38569</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>583</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,13 +7285,13 @@
         <v>16170</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>593</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>309</v>
+        <v>594</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -7276,13 +7300,13 @@
         <v>11351</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>587</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -7291,13 +7315,13 @@
         <v>27521</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>589</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,13 +7336,13 @@
         <v>24015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -7327,13 +7351,13 @@
         <v>16659</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -7342,13 +7366,13 @@
         <v>40674</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>598</v>
+        <v>514</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,7 +7428,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7416,13 +7440,13 @@
         <v>11575</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -7431,13 +7455,13 @@
         <v>23838</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>604</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -7446,13 +7470,13 @@
         <v>35413</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7491,13 @@
         <v>30205</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>612</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -7482,13 +7506,13 @@
         <v>13191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -7497,13 +7521,13 @@
         <v>43396</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,13 +7542,13 @@
         <v>48330</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>619</v>
+        <v>68</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -7533,13 +7557,13 @@
         <v>43964</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="M18" s="7">
         <v>104</v>
@@ -7548,13 +7572,13 @@
         <v>92294</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,13 +7593,13 @@
         <v>30738</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>157</v>
+        <v>631</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -7584,13 +7608,13 @@
         <v>22250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>628</v>
+        <v>439</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>329</v>
+        <v>633</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7599,13 +7623,13 @@
         <v>52988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7644,13 @@
         <v>91946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -7635,13 +7659,13 @@
         <v>24386</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -7650,13 +7674,13 @@
         <v>116332</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7712,7 +7736,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7724,13 +7748,13 @@
         <v>15455</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -7739,13 +7763,13 @@
         <v>19011</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>645</v>
+        <v>79</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -7754,13 +7778,13 @@
         <v>34466</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7799,13 @@
         <v>13896</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -7790,13 +7814,13 @@
         <v>15798</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -7805,13 +7829,13 @@
         <v>29694</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>327</v>
+        <v>660</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7850,13 @@
         <v>20337</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -7841,13 +7865,13 @@
         <v>23492</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -7856,13 +7880,13 @@
         <v>43829</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7901,13 @@
         <v>13391</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -7892,13 +7916,13 @@
         <v>14254</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -7907,13 +7931,13 @@
         <v>27645</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>268</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,13 +7952,13 @@
         <v>18027</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -7943,13 +7967,13 @@
         <v>16940</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>682</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -7958,13 +7982,13 @@
         <v>34967</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,7 +8044,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8032,13 +8056,13 @@
         <v>32605</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>394</v>
+        <v>478</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
@@ -8047,13 +8071,13 @@
         <v>25346</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="M28" s="7">
         <v>64</v>
@@ -8062,13 +8086,13 @@
         <v>57951</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>686</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8107,13 @@
         <v>9130</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -8098,13 +8122,13 @@
         <v>13965</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -8113,13 +8137,13 @@
         <v>23096</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>694</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8158,13 @@
         <v>31942</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -8149,13 +8173,13 @@
         <v>15197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -8164,13 +8188,13 @@
         <v>47140</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>702</v>
+        <v>298</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8188,10 +8212,10 @@
         <v>373</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="H31" s="7">
         <v>29</v>
@@ -8200,13 +8224,13 @@
         <v>21700</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -8215,13 +8239,13 @@
         <v>39130</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8236,13 +8260,13 @@
         <v>21977</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -8251,13 +8275,13 @@
         <v>17106</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="M32" s="7">
         <v>45</v>
@@ -8266,13 +8290,13 @@
         <v>39083</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>441</v>
+        <v>724</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,13 +8364,13 @@
         <v>67630</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="H34" s="7">
         <v>107</v>
@@ -8355,13 +8379,13 @@
         <v>81179</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="M34" s="7">
         <v>168</v>
@@ -8370,13 +8394,13 @@
         <v>148809</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,13 +8415,13 @@
         <v>61375</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>415</v>
+        <v>733</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="H35" s="7">
         <v>64</v>
@@ -8406,13 +8430,13 @@
         <v>51035</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>729</v>
+        <v>452</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="M35" s="7">
         <v>112</v>
@@ -8421,13 +8445,13 @@
         <v>112410</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>368</v>
+        <v>738</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8442,13 +8466,13 @@
         <v>126338</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="H36" s="7">
         <v>142</v>
@@ -8457,13 +8481,13 @@
         <v>102440</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>464</v>
+        <v>744</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="M36" s="7">
         <v>255</v>
@@ -8472,13 +8496,13 @@
         <v>228778</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8493,13 +8517,13 @@
         <v>79969</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>371</v>
+        <v>748</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="H37" s="7">
         <v>93</v>
@@ -8508,13 +8532,13 @@
         <v>71092</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>268</v>
+        <v>677</v>
       </c>
       <c r="M37" s="7">
         <v>170</v>
@@ -8523,13 +8547,13 @@
         <v>151061</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8544,13 +8568,13 @@
         <v>160130</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>748</v>
+        <v>224</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="H38" s="7">
         <v>99</v>
@@ -8559,13 +8583,13 @@
         <v>77753</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>25</v>
+        <v>758</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="M38" s="7">
         <v>195</v>
@@ -8574,13 +8598,13 @@
         <v>237884</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8636,7 +8660,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6708-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B660A0AB-8929-4AEE-9EA2-71D4DFD1F8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F11D7DC-3000-46AA-B828-1049775F2339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DFEE5E45-E0A0-482C-A03D-684B6FF7284D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74E888D1-3246-4736-8190-E0497BA071DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="754">
   <si>
     <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -79,2254 +79,2227 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,56%</t>
+    <t>18,0%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>2,73%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
   </si>
   <si>
     <t>32,32%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
   </si>
 </sst>
 </file>
@@ -2738,7 +2711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2D66CC-54F6-4FEA-8468-B82E27CB0438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EB1920-91A8-424D-8409-B6B6C9BC76C6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3807,7 +3780,7 @@
         <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -3816,13 +3789,13 @@
         <v>47379</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3810,13 @@
         <v>30488</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -3852,13 +3825,13 @@
         <v>14542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -3867,13 +3840,13 @@
         <v>45030</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3861,13 @@
         <v>53058</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -3903,13 +3876,13 @@
         <v>36813</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -3918,13 +3891,13 @@
         <v>89871</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3912,13 @@
         <v>68873</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -3954,13 +3927,13 @@
         <v>52605</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>111</v>
@@ -3969,13 +3942,13 @@
         <v>121478</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3963,13 @@
         <v>144356</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -4005,13 +3978,13 @@
         <v>85690</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>203</v>
@@ -4020,13 +3993,13 @@
         <v>230045</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,7 +4055,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4094,13 +4067,13 @@
         <v>34756</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>28</v>
@@ -4109,13 +4082,13 @@
         <v>29306</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -4124,13 +4097,13 @@
         <v>64062</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,7 +4118,7 @@
         <v>33519</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>205</v>
@@ -4265,10 +4238,10 @@
         <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>193</v>
@@ -4277,13 +4250,13 @@
         <v>194598</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4271,13 @@
         <v>136193</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>84</v>
@@ -4313,13 +4286,13 @@
         <v>87947</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>212</v>
@@ -4328,13 +4301,13 @@
         <v>224141</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4375,13 @@
         <v>106200</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>85</v>
@@ -4417,13 +4390,13 @@
         <v>89869</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>180</v>
@@ -4432,10 +4405,10 @@
         <v>196070</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>247</v>
@@ -4456,10 +4429,10 @@
         <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>72</v>
@@ -4468,10 +4441,10 @@
         <v>77061</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>252</v>
@@ -4486,10 +4459,10 @@
         <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4477,13 @@
         <v>287894</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>184</v>
@@ -4719,7 +4692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DAC58C-B5C2-4D5A-94EE-77BC0AF7A2FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A835DF0-EA9D-4F2C-93EE-F6309EBF5F09}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4894,13 +4867,13 @@
         <v>5059</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4909,13 +4882,13 @@
         <v>2463</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4924,13 +4897,13 @@
         <v>7522</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4918,13 @@
         <v>9777</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4960,13 +4933,13 @@
         <v>6386</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>304</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4975,13 +4948,13 @@
         <v>16162</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +4969,13 @@
         <v>10538</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5011,13 +4984,13 @@
         <v>10008</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>311</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -5026,13 +4999,13 @@
         <v>20545</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5020,13 @@
         <v>14555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -5062,13 +5035,13 @@
         <v>5894</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -5077,13 +5050,13 @@
         <v>20449</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5124,13 @@
         <v>23802</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5166,13 +5139,13 @@
         <v>25021</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5181,13 +5154,13 @@
         <v>48824</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5175,13 @@
         <v>29841</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>331</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -5217,13 +5190,13 @@
         <v>18397</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -5232,13 +5205,13 @@
         <v>48238</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,10 +5229,10 @@
         <v>133</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>178</v>
+        <v>338</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -5268,13 +5241,13 @@
         <v>23095</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -5283,13 +5256,13 @@
         <v>68952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5277,13 @@
         <v>44077</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -5319,13 +5292,13 @@
         <v>44479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -5334,13 +5307,13 @@
         <v>88556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5328,13 @@
         <v>55692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5370,13 +5343,13 @@
         <v>26485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -5385,13 +5358,13 @@
         <v>82178</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5432,13 @@
         <v>28072</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>365</v>
+        <v>26</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -5474,13 +5447,13 @@
         <v>31643</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -5489,13 +5462,13 @@
         <v>59715</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5483,13 @@
         <v>63816</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5525,13 +5498,13 @@
         <v>43936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -5540,13 +5513,13 @@
         <v>107753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5534,13 @@
         <v>113744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>173</v>
+        <v>376</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H18" s="7">
         <v>63</v>
@@ -5579,10 +5552,10 @@
         <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M18" s="7">
         <v>165</v>
@@ -5591,13 +5564,13 @@
         <v>177441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5585,13 @@
         <v>90359</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -5627,13 +5600,13 @@
         <v>71714</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>154</v>
@@ -5642,13 +5615,13 @@
         <v>162073</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5636,13 @@
         <v>118049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -5678,13 +5651,13 @@
         <v>62782</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>163</v>
@@ -5693,13 +5666,13 @@
         <v>180831</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5740,13 @@
         <v>39837</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5782,13 +5755,13 @@
         <v>18264</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -5797,13 +5770,13 @@
         <v>58102</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>412</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5791,13 @@
         <v>50257</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>415</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H23" s="7">
         <v>46</v>
@@ -5833,13 +5806,13 @@
         <v>46096</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M23" s="7">
         <v>92</v>
@@ -5848,13 +5821,13 @@
         <v>96353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5842,13 @@
         <v>121430</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H24" s="7">
         <v>90</v>
@@ -5884,13 +5857,13 @@
         <v>90807</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>99</v>
+        <v>421</v>
       </c>
       <c r="M24" s="7">
         <v>196</v>
@@ -5899,13 +5872,13 @@
         <v>212237</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5893,13 @@
         <v>78013</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -5935,13 +5908,13 @@
         <v>53897</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -5950,13 +5923,13 @@
         <v>131911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +5944,13 @@
         <v>74282</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5986,13 +5959,13 @@
         <v>61494</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="M26" s="7">
         <v>127</v>
@@ -6001,13 +5974,13 @@
         <v>135776</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,7 +6036,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6075,13 +6048,13 @@
         <v>39609</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -6090,13 +6063,13 @@
         <v>39901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="M28" s="7">
         <v>74</v>
@@ -6105,13 +6078,13 @@
         <v>79510</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6099,13 @@
         <v>45522</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -6141,13 +6114,13 @@
         <v>47315</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="M29" s="7">
         <v>90</v>
@@ -6156,13 +6129,13 @@
         <v>92838</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6150,13 @@
         <v>105314</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H30" s="7">
         <v>88</v>
@@ -6192,13 +6165,13 @@
         <v>89935</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="M30" s="7">
         <v>193</v>
@@ -6207,13 +6180,13 @@
         <v>195248</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6201,13 @@
         <v>98907</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="H31" s="7">
         <v>58</v>
@@ -6243,13 +6216,13 @@
         <v>61243</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="M31" s="7">
         <v>154</v>
@@ -6258,13 +6231,13 @@
         <v>160150</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>485</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6252,13 @@
         <v>111819</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>487</v>
+        <v>174</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="H32" s="7">
         <v>80</v>
@@ -6294,13 +6267,13 @@
         <v>87080</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="M32" s="7">
         <v>189</v>
@@ -6309,13 +6282,13 @@
         <v>198899</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6356,13 @@
         <v>135414</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>333</v>
+        <v>484</v>
       </c>
       <c r="H34" s="7">
         <v>114</v>
@@ -6398,13 +6371,13 @@
         <v>119970</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="M34" s="7">
         <v>238</v>
@@ -6413,13 +6386,13 @@
         <v>255384</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>501</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6407,13 @@
         <v>194496</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="H35" s="7">
         <v>156</v>
@@ -6449,13 +6422,13 @@
         <v>158207</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="M35" s="7">
         <v>339</v>
@@ -6464,13 +6437,13 @@
         <v>352702</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6458,13 @@
         <v>396121</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="H36" s="7">
         <v>273</v>
@@ -6500,13 +6473,13 @@
         <v>273919</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>267</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="M36" s="7">
         <v>639</v>
@@ -6515,13 +6488,13 @@
         <v>670041</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>516</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6509,13 @@
         <v>321894</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>518</v>
+        <v>332</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="H37" s="7">
         <v>239</v>
@@ -6554,10 +6527,10 @@
         <v>213</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="M37" s="7">
         <v>542</v>
@@ -6566,13 +6539,13 @@
         <v>563234</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6560,13 @@
         <v>374397</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>525</v>
+        <v>138</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>526</v>
+        <v>228</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="H38" s="7">
         <v>231</v>
@@ -6602,13 +6575,13 @@
         <v>243736</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>403</v>
+        <v>515</v>
       </c>
       <c r="M38" s="7">
         <v>578</v>
@@ -6617,13 +6590,13 @@
         <v>618133</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,7 +6673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D703C33E-9D76-4930-B96F-09E9B3F6B207}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA6EE8E-AD84-4753-B024-44A14DE77198}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6717,7 +6690,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6824,13 +6797,13 @@
         <v>1263</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6839,13 +6812,13 @@
         <v>1425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -6854,13 +6827,13 @@
         <v>2688</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,10 +6851,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6890,13 +6863,13 @@
         <v>2077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6905,13 +6878,13 @@
         <v>2077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,13 +6899,13 @@
         <v>6245</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6941,13 +6914,13 @@
         <v>702</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6956,13 +6929,13 @@
         <v>6946</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,13 +6950,13 @@
         <v>2240</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6992,13 +6965,13 @@
         <v>1537</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>557</v>
+        <v>61</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -7007,13 +6980,13 @@
         <v>3777</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7028,13 +7001,13 @@
         <v>4166</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -7043,13 +7016,13 @@
         <v>2662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -7058,13 +7031,13 @@
         <v>6828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>554</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7105,13 @@
         <v>6733</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -7147,13 +7120,13 @@
         <v>11559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -7162,13 +7135,13 @@
         <v>18291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>578</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,13 +7156,13 @@
         <v>8145</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>566</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -7198,13 +7171,13 @@
         <v>6002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>582</v>
+        <v>116</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -7213,13 +7186,13 @@
         <v>14147</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>584</v>
+        <v>406</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,13 +7207,13 @@
         <v>19484</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>272</v>
+        <v>571</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>436</v>
+        <v>572</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -7249,13 +7222,13 @@
         <v>19085</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>589</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -7264,13 +7237,13 @@
         <v>38569</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>88</v>
+        <v>577</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,13 +7258,13 @@
         <v>16170</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -7300,13 +7273,13 @@
         <v>11351</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -7315,13 +7288,13 @@
         <v>27521</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,13 +7309,13 @@
         <v>24015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>600</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -7351,13 +7324,13 @@
         <v>16659</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -7366,13 +7339,13 @@
         <v>40674</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>514</v>
+        <v>591</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7413,13 @@
         <v>11575</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -7455,13 +7428,13 @@
         <v>23838</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>597</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -7470,13 +7443,13 @@
         <v>35413</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7464,13 @@
         <v>30205</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>605</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -7506,13 +7479,13 @@
         <v>13191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -7521,13 +7494,13 @@
         <v>43396</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>609</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7515,13 @@
         <v>48330</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>68</v>
+        <v>613</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -7557,13 +7530,13 @@
         <v>43964</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>87</v>
+        <v>616</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="M18" s="7">
         <v>104</v>
@@ -7572,13 +7545,13 @@
         <v>92294</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7566,13 @@
         <v>30738</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -7608,13 +7581,13 @@
         <v>22250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>439</v>
+        <v>624</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7623,13 +7596,13 @@
         <v>52988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>636</v>
+        <v>447</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7617,13 @@
         <v>91946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -7659,13 +7632,13 @@
         <v>24386</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>642</v>
+        <v>357</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -7674,13 +7647,13 @@
         <v>116332</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>345</v>
+        <v>635</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7721,13 @@
         <v>15455</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -7763,13 +7736,13 @@
         <v>19011</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>79</v>
+        <v>641</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -7778,13 +7751,13 @@
         <v>34466</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>652</v>
+        <v>602</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7772,13 @@
         <v>13896</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -7814,13 +7787,13 @@
         <v>15798</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>658</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>659</v>
+        <v>517</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -7829,13 +7802,13 @@
         <v>29694</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7823,13 @@
         <v>20337</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -7865,13 +7838,13 @@
         <v>23492</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>667</v>
+        <v>235</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -7880,13 +7853,13 @@
         <v>43829</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7874,13 @@
         <v>13391</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>620</v>
+        <v>659</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -7916,13 +7889,13 @@
         <v>14254</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>362</v>
+        <v>664</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -7931,13 +7904,13 @@
         <v>27645</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7925,13 @@
         <v>18027</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -7967,13 +7940,13 @@
         <v>16940</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>682</v>
+        <v>523</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -7982,13 +7955,13 @@
         <v>34967</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,7 +8017,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8056,13 +8029,13 @@
         <v>32605</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>478</v>
+        <v>677</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
@@ -8071,13 +8044,13 @@
         <v>25346</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="M28" s="7">
         <v>64</v>
@@ -8086,13 +8059,13 @@
         <v>57951</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>469</v>
+        <v>683</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8080,13 @@
         <v>9130</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -8122,13 +8095,13 @@
         <v>13965</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>699</v>
+        <v>294</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -8137,13 +8110,13 @@
         <v>23096</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>690</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>72</v>
+        <v>691</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8131,13 @@
         <v>31942</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -8173,13 +8146,13 @@
         <v>15197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -8188,13 +8161,13 @@
         <v>47140</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>707</v>
+        <v>338</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,13 +8182,13 @@
         <v>17430</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>370</v>
+        <v>700</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="H31" s="7">
         <v>29</v>
@@ -8224,13 +8197,13 @@
         <v>21700</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -8239,13 +8212,13 @@
         <v>39130</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,13 +8233,13 @@
         <v>21977</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -8275,13 +8248,13 @@
         <v>17106</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>721</v>
+        <v>476</v>
       </c>
       <c r="M32" s="7">
         <v>45</v>
@@ -8290,13 +8263,13 @@
         <v>39083</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8337,13 @@
         <v>67630</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="H34" s="7">
         <v>107</v>
@@ -8379,13 +8352,13 @@
         <v>81179</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="M34" s="7">
         <v>168</v>
@@ -8394,13 +8367,13 @@
         <v>148809</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>731</v>
+        <v>79</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8388,13 @@
         <v>61375</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>723</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="H35" s="7">
         <v>64</v>
@@ -8430,13 +8403,13 @@
         <v>51035</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>452</v>
+        <v>725</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>735</v>
+        <v>336</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="M35" s="7">
         <v>112</v>
@@ -8445,13 +8418,13 @@
         <v>112410</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,13 +8439,13 @@
         <v>126338</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="H36" s="7">
         <v>142</v>
@@ -8481,13 +8454,13 @@
         <v>102440</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>744</v>
+        <v>623</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="M36" s="7">
         <v>255</v>
@@ -8496,13 +8469,13 @@
         <v>228778</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>130</v>
+        <v>736</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,13 +8490,13 @@
         <v>79969</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="H37" s="7">
         <v>93</v>
@@ -8532,13 +8505,13 @@
         <v>71092</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>677</v>
+        <v>743</v>
       </c>
       <c r="M37" s="7">
         <v>170</v>
@@ -8547,13 +8520,13 @@
         <v>151061</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,13 +8541,13 @@
         <v>160130</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>224</v>
+        <v>747</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>756</v>
+        <v>376</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="H38" s="7">
         <v>99</v>
@@ -8583,13 +8556,13 @@
         <v>77753</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="M38" s="7">
         <v>195</v>
@@ -8598,13 +8571,13 @@
         <v>237884</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6708-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F11D7DC-3000-46AA-B828-1049775F2339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81F68645-C2B1-46E8-8E4C-D33E73635EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74E888D1-3246-4736-8190-E0497BA071DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B64A007-4EA9-4B1A-BCB3-E8240DE9FDD8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="755">
   <si>
     <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -79,2227 +79,2230 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,0%</t>
+    <t>16,43%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
     <t>32,32%</t>
   </si>
   <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
   </si>
 </sst>
 </file>
@@ -2711,7 +2714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EB1920-91A8-424D-8409-B6B6C9BC76C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11D61FC-0CAC-43FC-9DD9-38887799DBF9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3200,7 +3203,7 @@
         <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -3209,13 +3212,13 @@
         <v>9829</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -3224,13 +3227,13 @@
         <v>22985</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3248,13 @@
         <v>39919</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -3260,13 +3263,13 @@
         <v>26759</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -3275,13 +3278,13 @@
         <v>66678</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3299,13 @@
         <v>58507</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3311,13 +3314,13 @@
         <v>36508</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -3326,13 +3329,13 @@
         <v>95015</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3350,13 @@
         <v>88239</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -3362,13 +3365,13 @@
         <v>53436</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -3377,13 +3380,13 @@
         <v>141675</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,7 +3442,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3451,13 +3454,13 @@
         <v>29646</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -3466,13 +3469,13 @@
         <v>23172</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -3481,13 +3484,13 @@
         <v>52818</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3505,13 @@
         <v>26872</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -3517,13 +3520,13 @@
         <v>22931</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3532,13 +3535,13 @@
         <v>49803</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3556,13 @@
         <v>84754</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -3568,13 +3571,13 @@
         <v>56856</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -3583,13 +3586,13 @@
         <v>141610</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3607,13 @@
         <v>94039</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -3619,13 +3622,13 @@
         <v>56375</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -3634,13 +3637,13 @@
         <v>150414</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3658,13 @@
         <v>173397</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -3670,13 +3673,13 @@
         <v>110006</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>259</v>
@@ -3685,13 +3688,13 @@
         <v>283402</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,7 +3750,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3759,13 +3762,13 @@
         <v>22687</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -3774,13 +3777,13 @@
         <v>24692</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -3789,13 +3792,13 @@
         <v>47379</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3813,13 @@
         <v>30488</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -3825,13 +3828,13 @@
         <v>14542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -3840,13 +3843,13 @@
         <v>45030</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3864,13 @@
         <v>53058</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -3876,13 +3879,13 @@
         <v>36813</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -3891,13 +3894,13 @@
         <v>89871</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3915,13 @@
         <v>68873</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -3927,13 +3930,13 @@
         <v>52605</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>111</v>
@@ -3942,13 +3945,13 @@
         <v>121478</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3966,13 @@
         <v>144356</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -3978,13 +3981,13 @@
         <v>85690</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>203</v>
@@ -3993,13 +3996,13 @@
         <v>230045</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,7 +4058,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4067,13 +4070,13 @@
         <v>34756</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>28</v>
@@ -4082,13 +4085,13 @@
         <v>29306</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -4097,13 +4100,13 @@
         <v>64062</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4121,13 @@
         <v>33519</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -4133,13 +4136,13 @@
         <v>28782</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>59</v>
@@ -4148,13 +4151,13 @@
         <v>62301</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4172,13 @@
         <v>97434</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>71</v>
@@ -4184,13 +4187,13 @@
         <v>76714</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -4199,13 +4202,13 @@
         <v>174147</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4223,13 @@
         <v>116786</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>76</v>
@@ -4235,13 +4238,13 @@
         <v>77812</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>193</v>
@@ -4250,13 +4253,13 @@
         <v>194598</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4274,13 @@
         <v>136193</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>84</v>
@@ -4286,13 +4289,13 @@
         <v>87947</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>212</v>
@@ -4301,13 +4304,13 @@
         <v>224141</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4378,13 @@
         <v>106200</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>85</v>
@@ -4390,13 +4393,13 @@
         <v>89869</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>180</v>
@@ -4405,13 +4408,13 @@
         <v>196070</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4429,13 @@
         <v>106454</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>72</v>
@@ -4441,13 +4444,13 @@
         <v>77061</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>168</v>
@@ -4456,13 +4459,13 @@
         <v>183515</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4480,13 @@
         <v>287894</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>184</v>
@@ -4492,13 +4495,13 @@
         <v>202460</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>464</v>
@@ -4507,13 +4510,13 @@
         <v>490354</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4531,13 @@
         <v>347615</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>212</v>
@@ -4543,13 +4546,13 @@
         <v>225815</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>542</v>
@@ -4558,13 +4561,13 @@
         <v>573430</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4582,13 @@
         <v>566698</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>320</v>
@@ -4594,13 +4597,13 @@
         <v>350312</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>847</v>
@@ -4609,13 +4612,13 @@
         <v>917010</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,7 +4674,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4692,7 +4695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A835DF0-EA9D-4F2C-93EE-F6309EBF5F09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F49BAF-49C8-4075-B089-3343F5125553}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4709,7 +4712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4816,13 +4819,13 @@
         <v>4093</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4831,13 +4834,13 @@
         <v>5141</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4846,13 +4849,13 @@
         <v>9234</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4870,13 @@
         <v>5059</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4882,13 +4885,13 @@
         <v>2463</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4897,13 +4900,13 @@
         <v>7522</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4921,13 @@
         <v>9777</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>94</v>
+        <v>299</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4933,13 +4936,13 @@
         <v>6386</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4951,10 +4954,10 @@
         <v>305</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>171</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4972,13 @@
         <v>10538</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4984,13 +4987,13 @@
         <v>10008</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4999,13 +5002,13 @@
         <v>20545</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5023,13 @@
         <v>14555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -5035,13 +5038,13 @@
         <v>5894</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -5050,13 +5053,13 @@
         <v>20449</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5127,13 @@
         <v>23802</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5139,13 +5142,13 @@
         <v>25021</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5154,13 +5157,13 @@
         <v>48824</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5178,13 @@
         <v>29841</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -5190,13 +5193,13 @@
         <v>18397</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -5205,13 +5208,13 @@
         <v>48238</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5229,13 @@
         <v>45857</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -5241,13 +5244,13 @@
         <v>23095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -5256,13 +5259,13 @@
         <v>68952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5280,13 @@
         <v>44077</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -5292,13 +5295,13 @@
         <v>44479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -5307,13 +5310,13 @@
         <v>88556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5331,13 @@
         <v>55692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5343,13 +5346,13 @@
         <v>26485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -5358,13 +5361,13 @@
         <v>82178</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,7 +5423,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5432,13 +5435,13 @@
         <v>28072</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -5447,13 +5450,13 @@
         <v>31643</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -5462,13 +5465,13 @@
         <v>59715</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5486,13 @@
         <v>63816</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5498,13 +5501,13 @@
         <v>43936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>160</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -5513,13 +5516,13 @@
         <v>107753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5537,13 @@
         <v>113744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H18" s="7">
         <v>63</v>
@@ -5549,13 +5552,13 @@
         <v>63697</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M18" s="7">
         <v>165</v>
@@ -5564,13 +5567,13 @@
         <v>177441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5588,13 @@
         <v>90359</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -5600,13 +5603,13 @@
         <v>71714</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M19" s="7">
         <v>154</v>
@@ -5615,13 +5618,13 @@
         <v>162073</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5639,13 @@
         <v>118049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -5651,13 +5654,13 @@
         <v>62782</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M20" s="7">
         <v>163</v>
@@ -5666,13 +5669,13 @@
         <v>180831</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,7 +5731,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5740,13 +5743,13 @@
         <v>39837</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>402</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5755,13 +5758,13 @@
         <v>18264</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -5770,13 +5773,13 @@
         <v>58102</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5794,13 @@
         <v>50257</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>31</v>
+        <v>410</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>46</v>
@@ -5806,13 +5809,13 @@
         <v>46096</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>411</v>
+        <v>124</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
         <v>92</v>
@@ -5821,13 +5824,13 @@
         <v>96353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5845,13 @@
         <v>121430</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H24" s="7">
         <v>90</v>
@@ -5857,13 +5860,13 @@
         <v>90807</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M24" s="7">
         <v>196</v>
@@ -5872,13 +5875,13 @@
         <v>212237</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5896,13 @@
         <v>78013</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -5908,13 +5911,13 @@
         <v>53897</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -5923,13 +5926,13 @@
         <v>131911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>228</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5947,13 @@
         <v>74282</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5959,13 +5962,13 @@
         <v>61494</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M26" s="7">
         <v>127</v>
@@ -5974,13 +5977,13 @@
         <v>135776</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,7 +6039,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6048,13 +6051,13 @@
         <v>39609</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -6063,13 +6066,13 @@
         <v>39901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>109</v>
+        <v>446</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M28" s="7">
         <v>74</v>
@@ -6078,13 +6081,13 @@
         <v>79510</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,13 +6102,13 @@
         <v>45522</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -6114,13 +6117,13 @@
         <v>47315</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M29" s="7">
         <v>90</v>
@@ -6129,13 +6132,13 @@
         <v>92838</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6153,13 @@
         <v>105314</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H30" s="7">
         <v>88</v>
@@ -6165,13 +6168,13 @@
         <v>89935</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M30" s="7">
         <v>193</v>
@@ -6180,13 +6183,13 @@
         <v>195248</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6204,13 @@
         <v>98907</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H31" s="7">
         <v>58</v>
@@ -6216,13 +6219,13 @@
         <v>61243</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M31" s="7">
         <v>154</v>
@@ -6231,13 +6234,13 @@
         <v>160150</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>30</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,13 +6255,13 @@
         <v>111819</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>174</v>
+        <v>478</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>475</v>
+        <v>353</v>
       </c>
       <c r="H32" s="7">
         <v>80</v>
@@ -6267,13 +6270,13 @@
         <v>87080</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M32" s="7">
         <v>189</v>
@@ -6282,13 +6285,13 @@
         <v>198899</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6359,13 @@
         <v>135414</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H34" s="7">
         <v>114</v>
@@ -6371,13 +6374,13 @@
         <v>119970</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>486</v>
+        <v>368</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M34" s="7">
         <v>238</v>
@@ -6386,13 +6389,13 @@
         <v>255384</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>250</v>
+        <v>491</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>408</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,13 +6410,13 @@
         <v>194496</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H35" s="7">
         <v>156</v>
@@ -6422,13 +6425,13 @@
         <v>158207</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M35" s="7">
         <v>339</v>
@@ -6437,13 +6440,13 @@
         <v>352702</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,13 +6461,13 @@
         <v>396121</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H36" s="7">
         <v>273</v>
@@ -6473,13 +6476,13 @@
         <v>273919</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>267</v>
+        <v>506</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="M36" s="7">
         <v>639</v>
@@ -6488,13 +6491,13 @@
         <v>670041</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6512,13 @@
         <v>321894</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>332</v>
+        <v>511</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="H37" s="7">
         <v>239</v>
@@ -6524,13 +6527,13 @@
         <v>241341</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>507</v>
+        <v>123</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="M37" s="7">
         <v>542</v>
@@ -6539,13 +6542,13 @@
         <v>563234</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>511</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,13 +6563,13 @@
         <v>374397</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>138</v>
+        <v>516</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>228</v>
+        <v>517</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="H38" s="7">
         <v>231</v>
@@ -6575,13 +6578,13 @@
         <v>243736</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>515</v>
+        <v>389</v>
       </c>
       <c r="M38" s="7">
         <v>578</v>
@@ -6590,13 +6593,13 @@
         <v>618133</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,7 +6655,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6673,7 +6676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA6EE8E-AD84-4753-B024-44A14DE77198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F041C84-EF1C-4779-BF73-09506123D6A1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6690,7 +6693,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6797,13 +6800,13 @@
         <v>1263</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6812,13 +6815,13 @@
         <v>1425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -6827,13 +6830,13 @@
         <v>2688</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6851,10 +6854,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6863,13 +6866,13 @@
         <v>2077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6878,13 +6881,13 @@
         <v>2077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,13 +6902,13 @@
         <v>6245</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6914,13 +6917,13 @@
         <v>702</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>535</v>
+        <v>370</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6929,13 +6932,13 @@
         <v>6946</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,13 +6953,13 @@
         <v>2240</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6965,13 +6968,13 @@
         <v>1537</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>61</v>
+        <v>547</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -6980,13 +6983,13 @@
         <v>3777</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,13 +7004,13 @@
         <v>4166</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -7016,13 +7019,13 @@
         <v>2662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -7031,13 +7034,13 @@
         <v>6828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7108,13 @@
         <v>6733</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>558</v>
+        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -7120,13 +7123,13 @@
         <v>11559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -7135,13 +7138,13 @@
         <v>18291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,13 +7159,13 @@
         <v>8145</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>566</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -7171,13 +7174,13 @@
         <v>6002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>116</v>
+        <v>571</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -7186,13 +7189,13 @@
         <v>14147</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>406</v>
+        <v>573</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7207,13 +7210,13 @@
         <v>19484</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -7222,13 +7225,13 @@
         <v>19085</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>334</v>
+        <v>580</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -7237,13 +7240,13 @@
         <v>38569</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7258,13 +7261,13 @@
         <v>16170</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>579</v>
+        <v>359</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>580</v>
+        <v>309</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -7273,13 +7276,13 @@
         <v>11351</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>252</v>
+        <v>587</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -7288,13 +7291,13 @@
         <v>27521</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>334</v>
+        <v>589</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,13 +7312,13 @@
         <v>24015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>592</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -7324,13 +7327,13 @@
         <v>16659</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -7339,13 +7342,13 @@
         <v>40674</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7401,7 +7404,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7413,13 +7416,13 @@
         <v>11575</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -7428,13 +7431,13 @@
         <v>23838</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -7443,13 +7446,13 @@
         <v>35413</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7464,13 +7467,13 @@
         <v>30205</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -7479,13 +7482,13 @@
         <v>13191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -7494,13 +7497,13 @@
         <v>43396</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>609</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7515,13 +7518,13 @@
         <v>48330</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -7530,13 +7533,13 @@
         <v>43964</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>616</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="M18" s="7">
         <v>104</v>
@@ -7545,13 +7548,13 @@
         <v>92294</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,13 +7569,13 @@
         <v>30738</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>622</v>
+        <v>157</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -7581,13 +7584,13 @@
         <v>22250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>625</v>
+        <v>329</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7596,13 +7599,13 @@
         <v>52988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>631</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7620,13 @@
         <v>91946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -7632,13 +7635,13 @@
         <v>24386</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>357</v>
+        <v>637</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -7647,13 +7650,13 @@
         <v>116332</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>635</v>
+        <v>347</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,7 +7712,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7721,13 +7724,13 @@
         <v>15455</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -7736,13 +7739,13 @@
         <v>19011</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -7751,13 +7754,13 @@
         <v>34466</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7775,13 @@
         <v>13896</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -7787,13 +7790,13 @@
         <v>15798</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>328</v>
+        <v>654</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>517</v>
+        <v>655</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -7802,13 +7805,13 @@
         <v>29694</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>649</v>
+        <v>327</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7826,13 @@
         <v>20337</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -7838,13 +7841,13 @@
         <v>23492</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>235</v>
+        <v>662</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -7853,13 +7856,13 @@
         <v>43829</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7877,13 @@
         <v>13391</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>659</v>
+        <v>615</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -7889,13 +7892,13 @@
         <v>14254</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>664</v>
+        <v>364</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -7904,13 +7907,13 @@
         <v>27645</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>667</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,13 +7928,13 @@
         <v>18027</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -7940,13 +7943,13 @@
         <v>16940</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>523</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -7955,13 +7958,13 @@
         <v>34967</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,7 +8020,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8029,13 +8032,13 @@
         <v>32605</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>677</v>
+        <v>394</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
@@ -8044,13 +8047,13 @@
         <v>25346</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="M28" s="7">
         <v>64</v>
@@ -8059,13 +8062,13 @@
         <v>57951</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8083,13 @@
         <v>9130</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -8095,13 +8098,13 @@
         <v>13965</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>294</v>
+        <v>693</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -8110,13 +8113,13 @@
         <v>23096</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>691</v>
+        <v>71</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,13 +8134,13 @@
         <v>31942</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -8146,13 +8149,13 @@
         <v>15197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -8161,13 +8164,13 @@
         <v>47140</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>399</v>
+        <v>702</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>338</v>
+        <v>703</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8185,13 @@
         <v>17430</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>700</v>
+        <v>372</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="H31" s="7">
         <v>29</v>
@@ -8197,13 +8200,13 @@
         <v>21700</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -8212,13 +8215,13 @@
         <v>39130</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8233,13 +8236,13 @@
         <v>21977</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -8248,13 +8251,13 @@
         <v>17106</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>476</v>
+        <v>717</v>
       </c>
       <c r="M32" s="7">
         <v>45</v>
@@ -8263,13 +8266,13 @@
         <v>39083</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>715</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,13 +8340,13 @@
         <v>67630</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="H34" s="7">
         <v>107</v>
@@ -8352,13 +8355,13 @@
         <v>81179</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="M34" s="7">
         <v>168</v>
@@ -8367,13 +8370,13 @@
         <v>148809</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>79</v>
+        <v>726</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,13 +8391,13 @@
         <v>61375</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>722</v>
+        <v>415</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>723</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="H35" s="7">
         <v>64</v>
@@ -8403,13 +8406,13 @@
         <v>51035</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>336</v>
+        <v>730</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="M35" s="7">
         <v>112</v>
@@ -8418,13 +8421,13 @@
         <v>112410</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>728</v>
+        <v>368</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8439,13 +8442,13 @@
         <v>126338</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="H36" s="7">
         <v>142</v>
@@ -8454,13 +8457,13 @@
         <v>102440</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>623</v>
+        <v>464</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="M36" s="7">
         <v>255</v>
@@ -8469,13 +8472,13 @@
         <v>228778</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>736</v>
+        <v>129</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,13 +8493,13 @@
         <v>79969</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>738</v>
+        <v>371</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H37" s="7">
         <v>93</v>
@@ -8505,13 +8508,13 @@
         <v>71092</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>743</v>
+        <v>268</v>
       </c>
       <c r="M37" s="7">
         <v>170</v>
@@ -8520,13 +8523,13 @@
         <v>151061</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8541,13 +8544,13 @@
         <v>160130</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>376</v>
+        <v>749</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H38" s="7">
         <v>99</v>
@@ -8556,13 +8559,13 @@
         <v>77753</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>749</v>
+        <v>25</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M38" s="7">
         <v>195</v>
@@ -8571,13 +8574,13 @@
         <v>237884</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8633,7 +8636,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
